--- a/Sheets/Text/Script.xlsx
+++ b/Sheets/Text/Script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_Unity\2024\NaninovelTestTask\Sheets\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25381247-8566-4B0A-8254-950EE523B3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319DC83C-B6D0-4FA7-B98C-A42FA3716FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,10 @@
     <t>Добыть меч для Софи</t>
   </si>
   <si>
-    <t>Перейти к мини-игре</t>
-  </si>
-  <si>
-    <t>Пройдена мини-игра</t>
+    <t>Перейти к мини игре</t>
+  </si>
+  <si>
+    <t>Пройдена мини игра</t>
   </si>
   <si>
     <t>Получить меч</t>
@@ -964,9 +964,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
